--- a/doc/05_ファイル構成一覧表_F4.xlsx
+++ b/doc/05_ファイル構成一覧表_F4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A5866D-3508-462D-A95D-D3FBF9F23C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE2EEC7-BE2B-4A39-B59F-D2CC2164A10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -536,6 +536,16 @@
     <t>豊山さん</t>
     <rPh sb="0" eb="2">
       <t>トヨヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル一覧表</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -931,11 +941,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -946,7 +954,12 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -966,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -987,7 +1000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B43" si="0">ROW()-2</f>
         <v>2</v>
@@ -1008,7 +1021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1029,7 +1042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1050,7 +1063,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1071,7 +1084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1092,7 +1105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1113,7 +1126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1134,7 +1147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1175,7 +1188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1196,7 +1209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1217,7 +1230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1238,7 +1251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
